--- a/output/StructureDefinition-CEQ-topic.xlsx
+++ b/output/StructureDefinition-CEQ-topic.xlsx
@@ -466,7 +466,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;code value="subscriptionTopic"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/basic-resource-type"/&gt;
+    &lt;code value="adminact"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/output/StructureDefinition-CEQ-topic.xlsx
+++ b/output/StructureDefinition-CEQ-topic.xlsx
@@ -2569,10 +2569,10 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-CEQ-topic.xlsx
+++ b/output/StructureDefinition-CEQ-topic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="173">
   <si>
     <t>Path</t>
   </si>
@@ -331,6 +331,14 @@
     <t>eventCode</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {https://sequoiaproject.org/fhir/sphd-r4/StructureDefinition/CEQEventCode}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Basic.extension.id</t>
   </si>
   <si>
@@ -365,6 +373,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://sequoiaproject.org/fhir/sphd-r4/StructureDefinition/CEQEventCode</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1722,7 +1733,7 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>93</v>
@@ -1788,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>98</v>
@@ -1802,7 +1813,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1828,10 +1839,10 @@
         <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1882,7 +1893,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -1897,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
@@ -1905,7 +1916,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1976,7 +1987,7 @@
         <v>95</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>41</v>
@@ -1985,7 +1996,7 @@
         <v>96</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2008,7 +2019,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2034,13 +2045,13 @@
         <v>61</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2048,7 +2059,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>41</v>
@@ -2090,7 +2101,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>47</v>
@@ -2113,7 +2124,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2136,13 +2147,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2181,17 +2192,17 @@
         <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2214,10 +2225,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>41</v>
@@ -2239,13 +2250,13 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2272,29 +2283,29 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2317,11 +2328,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2343,16 +2354,16 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2401,7 +2412,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2424,7 +2435,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2447,13 +2458,13 @@
         <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2504,7 +2515,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2519,15 +2530,15 @@
         <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2550,26 +2561,26 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>41</v>
@@ -2587,13 +2598,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -2611,7 +2622,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>47</v>
@@ -2626,15 +2637,15 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2657,19 +2668,19 @@
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -2718,7 +2729,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2733,15 +2744,15 @@
         <v>59</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2764,17 +2775,17 @@
         <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -2823,7 +2834,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -2838,15 +2849,15 @@
         <v>59</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2869,17 +2880,17 @@
         <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -2928,7 +2939,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -2943,10 +2954,10 @@
         <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
